--- a/ExtensionForce.xlsx
+++ b/ExtensionForce.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherluey/Desktop/Linkage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D341B544-DF1E-5543-9FE7-52E045BB61B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7924214-9FC0-B242-A85E-BCB079A217AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="5460" windowWidth="27640" windowHeight="16740" xr2:uid="{4A44C046-A9D7-D843-B428-6D06930252F9}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{4A44C046-A9D7-D843-B428-6D06930252F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Extension (mm)</t>
   </si>
@@ -183,10 +183,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>28.48</c:v>
                 </c:pt>
@@ -197,33 +197,54 @@
                   <c:v>30.65654</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>31.796130000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.570520000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>33.498199999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>34.303449999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.641330000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>36.457140000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>37.574210000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>38.919420000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>39.148769999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40.099449999999997</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>41.103099999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>41.720440000000004</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>42.230049999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>42.548189999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>42.864350000000002</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>43.073650000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>43.094270000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -231,10 +252,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$14</c:f>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>11.16496472875693</c:v>
                 </c:pt>
@@ -245,33 +266,54 @@
                   <c:v>11.836006671748065</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11.652883370639277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.728383697626192</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12.186401847778527</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>11.861402644386079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.969359495442308</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12.531076850135749</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>12.217207969533439</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>13.194488606866868</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>12.61821522064824</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>13.889219439424894</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>13.87821858067027</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>15.505647027327312</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>17.07226277660526</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>18.732652268602905</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>20.602806784726049</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>24.51213546018711</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>29.031232955571472</c:v>
                 </c:pt>
               </c:numCache>
@@ -673,10 +715,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2277535750830814E-2"/>
+                  <c:y val="1.1523666945630876E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -709,10 +758,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>28.48</c:v>
                 </c:pt>
@@ -723,45 +772,66 @@
                   <c:v>30.65654</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>31.796130000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.570520000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>33.498199999999997</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>34.303449999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.641330000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>36.457140000000003</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>37.574210000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>38.919420000000002</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>39.148769999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>40.099449999999997</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>41.103099999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>41.720440000000004</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>42.230049999999999</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>42.548189999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>42.864350000000002</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>43.073650000000001</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>43.094270000000002</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>43.20731</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>43.286549999999998</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>43.314320000000002</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>43.413960000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -769,10 +839,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$18</c:f>
+              <c:f>Sheet1!$E$2:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>11.16496472875693</c:v>
                 </c:pt>
@@ -783,45 +853,66 @@
                   <c:v>11.836006671748065</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>11.652883370639277</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.728383697626192</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>12.186401847778527</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>11.861402644386079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.969359495442308</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>12.531076850135749</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>12.217207969533439</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>13.194488606866868</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>12.61821522064824</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>13.889219439424894</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>13.87821858067027</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>15.505647027327312</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>17.07226277660526</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>18.732652268602905</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>20.602806784726049</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>24.51213546018711</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>29.031232955571472</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>33.484006562286275</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>38.196642166068671</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>40.355029717804932</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>52.053839591345188</c:v>
                 </c:pt>
               </c:numCache>
@@ -2280,13 +2371,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>326737</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>179532</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>77932</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2314,16 +2405,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>268430</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360744</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>115256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>259770</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>72737</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>828539</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>187992</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2668,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8712459B-92BB-5E45-8AF2-706FA971A4A1}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2683,7 +2774,7 @@
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2699,8 +2790,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>28.48</v>
       </c>
@@ -2722,8 +2816,12 @@
         <f>A2-28.48</f>
         <v>0</v>
       </c>
+      <c r="G2">
+        <f>LOG10(E2)</f>
+        <v>1.0478573554298096</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>29.435690000000001</v>
       </c>
@@ -2742,16 +2840,20 @@
         <v>11.244098434397452</v>
       </c>
       <c r="F3">
-        <f>A3-28.48</f>
+        <f t="shared" ref="F3:F21" si="0">A3-28.48</f>
         <v>0.95569000000000059</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="1">LOG10(E3)</f>
+        <v>1.0509246389034324</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30.65654</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B18" si="0">(76.2-A4)*0.8931468585 * 2</f>
+        <f t="shared" ref="B4:B25" si="2">(76.2-A4)*0.8931468585 * 2</f>
         <v>81.353996448440824</v>
       </c>
       <c r="C4">
@@ -2761,370 +2863,583 @@
         <v>68.445849999999993</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E24" si="1">C4*B4/D4</f>
+        <f t="shared" ref="E4:E25" si="3">C4*B4/D4</f>
         <v>11.836006671748065</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="2">A4-28.48</f>
+        <f t="shared" si="0"/>
         <v>2.1765399999999993</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.0732052012927988</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>31.796130000000002</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>79.318353991484784</v>
+      </c>
+      <c r="C5">
+        <v>9.9971399999999999</v>
+      </c>
+      <c r="D5">
+        <v>68.048109999999994</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>11.652883370639277</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>3.3161300000000011</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.0664333997843565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>32.570520000000002</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>77.935065999977155</v>
+      </c>
+      <c r="C6">
+        <v>9.9502900000000007</v>
+      </c>
+      <c r="D6">
+        <v>66.119640000000004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>11.728383697626192</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.0905200000000015</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.0692381656050287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>33.498199999999997</v>
       </c>
-      <c r="B5">
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>76.277957044590607</v>
+      </c>
+      <c r="C7">
+        <v>9.8226099999999992</v>
+      </c>
+      <c r="D7">
+        <v>61.482349999999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>12.186401847778527</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>76.277957044590607</v>
-      </c>
-      <c r="C5">
-        <v>9.8226099999999992</v>
-      </c>
-      <c r="D5">
-        <v>61.482349999999997</v>
-      </c>
-      <c r="E5">
+        <v>5.0181999999999967</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>12.186401847778527</v>
-      </c>
-      <c r="F5">
+        <v>1.0858754949270797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>34.303449999999998</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="2"/>
-        <v>5.0181999999999967</v>
+        <v>74.839544028976363</v>
+      </c>
+      <c r="C8">
+        <v>9.6517300000000006</v>
+      </c>
+      <c r="D8">
+        <v>60.89761</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>11.861402644386079</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>5.8234499999999976</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.074136048614925</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>35.641330000000004</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>72.449697390876381</v>
+      </c>
+      <c r="C9">
+        <v>9.2482199999999999</v>
+      </c>
+      <c r="D9">
+        <v>55.978830000000002</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>11.969359495442308</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>7.1613300000000031</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.0780709110549018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>36.457140000000003</v>
       </c>
-      <c r="B6">
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>70.992421113610618</v>
+      </c>
+      <c r="C10">
+        <v>8.9288299999999996</v>
+      </c>
+      <c r="D10">
+        <v>50.584580000000003</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>12.531076850135749</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>70.992421113610618</v>
-      </c>
-      <c r="C6">
-        <v>8.9288299999999996</v>
-      </c>
-      <c r="D6">
-        <v>50.584580000000003</v>
-      </c>
-      <c r="E6">
+        <v>7.9771400000000021</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>12.531076850135749</v>
-      </c>
-      <c r="F6">
+        <v>1.0979883934184718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>37.574210000000001</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="2"/>
-        <v>7.9771400000000021</v>
+        <v>68.99700599116143</v>
+      </c>
+      <c r="C11">
+        <v>8.3978800000000007</v>
+      </c>
+      <c r="D11">
+        <v>47.427250000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>12.217207969533439</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>9.0942100000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.0869719667928264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>38.919420000000002</v>
       </c>
-      <c r="B7">
+      <c r="B12">
+        <f t="shared" si="2"/>
+        <v>66.594065820115858</v>
+      </c>
+      <c r="C12">
+        <v>7.6022600000000002</v>
+      </c>
+      <c r="D12">
+        <v>38.369459999999997</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>13.194488606866868</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>66.594065820115858</v>
-      </c>
-      <c r="C7">
-        <v>7.6022600000000002</v>
-      </c>
-      <c r="D7">
-        <v>38.369459999999997</v>
-      </c>
-      <c r="E7">
+        <v>10.439420000000002</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>13.194488606866868</v>
-      </c>
-      <c r="F7">
+        <v>1.1203925624590818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>39.148769999999999</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="2"/>
-        <v>10.439420000000002</v>
+        <v>66.184379356121909</v>
+      </c>
+      <c r="C13">
+        <v>7.4477700000000002</v>
+      </c>
+      <c r="D13">
+        <v>39.064639999999997</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>12.61821522064824</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>10.668769999999999</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.1009979306102087</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>40.099449999999997</v>
       </c>
-      <c r="B8">
+      <c r="B14">
+        <f t="shared" si="2"/>
+        <v>64.486185645244362</v>
+      </c>
+      <c r="C14">
+        <v>6.7406199999999998</v>
+      </c>
+      <c r="D14">
+        <v>31.29599</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>13.889219439424894</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>64.486185645244362</v>
-      </c>
-      <c r="C8">
-        <v>6.7406199999999998</v>
-      </c>
-      <c r="D8">
-        <v>31.29599</v>
-      </c>
-      <c r="E8">
+        <v>11.619449999999997</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>13.889219439424894</v>
-      </c>
-      <c r="F8">
+        <v>1.1426778394974484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>41.103099999999998</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="2"/>
-        <v>11.619449999999997</v>
+        <v>62.693371956177309</v>
+      </c>
+      <c r="C15">
+        <v>5.8574200000000003</v>
+      </c>
+      <c r="D15">
+        <v>26.460270000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>13.87821858067027</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>12.623099999999997</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.1423337233064024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>41.720440000000004</v>
       </c>
-      <c r="B9">
+      <c r="B16">
+        <f t="shared" si="2"/>
+        <v>61.590621392924518</v>
+      </c>
+      <c r="C16">
+        <v>5.2263799999999998</v>
+      </c>
+      <c r="D16">
+        <v>20.759920000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>15.505647027327312</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>61.590621392924518</v>
-      </c>
-      <c r="C9">
-        <v>5.2263799999999998</v>
-      </c>
-      <c r="D9">
-        <v>20.759920000000001</v>
-      </c>
-      <c r="E9">
+        <v>13.240440000000003</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>15.505647027327312</v>
-      </c>
-      <c r="F9">
+        <v>1.1904898934069439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>42.230049999999999</v>
+      </c>
+      <c r="B17">
+        <f>(76.2-A17)*0.8931468585 * 2</f>
+        <v>60.680308251804156</v>
+      </c>
+      <c r="C17">
+        <v>4.6409000000000002</v>
+      </c>
+      <c r="D17">
+        <v>16.495249999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>17.07226277660526</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>13.750049999999998</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.2322910868010686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>42.548189999999998</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="2"/>
-        <v>13.240440000000003</v>
+        <v>60.112016768677776</v>
+      </c>
+      <c r="C18">
+        <v>4.2387600000000001</v>
+      </c>
+      <c r="D18">
+        <v>13.601940000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>18.732652268602905</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>14.068189999999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.2725992714527219</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>42.230049999999999</v>
-      </c>
-      <c r="B10">
-        <f>(76.2-A10)*0.8931468585 * 2</f>
-        <v>60.680308251804156</v>
-      </c>
-      <c r="C10">
-        <v>4.6409000000000002</v>
-      </c>
-      <c r="D10">
-        <v>16.495249999999999</v>
-      </c>
-      <c r="E10">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>42.864350000000002</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="2"/>
+        <v>59.547262147111049</v>
+      </c>
+      <c r="C19">
+        <v>3.8049200000000001</v>
+      </c>
+      <c r="D19">
+        <v>10.997170000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>20.602806784726049</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>14.384350000000001</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
-        <v>17.07226277660526</v>
-      </c>
-      <c r="F10">
+        <v>1.3139263896935476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>43.073650000000001</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="2"/>
-        <v>13.750049999999998</v>
+        <v>59.173390872142953</v>
+      </c>
+      <c r="C20">
+        <v>3.0165099999999998</v>
+      </c>
+      <c r="D20">
+        <v>7.2819900000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>24.51213546018711</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>14.59365</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.3893811479789959</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>42.548189999999998</v>
-      </c>
-      <c r="B11">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>43.094270000000002</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="2"/>
+        <v>59.136557495698412</v>
+      </c>
+      <c r="C21">
+        <v>3.4637199999999999</v>
+      </c>
+      <c r="D21">
+        <v>7.0555899999999996</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>29.031232955571472</v>
+      </c>
+      <c r="F21">
         <f t="shared" si="0"/>
-        <v>60.112016768677776</v>
-      </c>
-      <c r="C11">
-        <v>4.2387600000000001</v>
-      </c>
-      <c r="D11">
-        <v>13.601940000000001</v>
-      </c>
-      <c r="E11">
+        <v>14.614270000000001</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
-        <v>18.732652268602905</v>
-      </c>
-      <c r="F11">
+        <v>1.4628654806966532</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>43.20731</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="2"/>
-        <v>14.068189999999998</v>
+        <v>58.934634853928735</v>
+      </c>
+      <c r="C22">
+        <v>3.28668</v>
+      </c>
+      <c r="D22">
+        <v>5.7848300000000004</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>33.484006562286275</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F4:F25" si="4">A22-28.48</f>
+        <v>14.727309999999999</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.5248374183709772</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>42.864350000000002</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>59.547262147111049</v>
-      </c>
-      <c r="C12">
-        <v>3.8049200000000001</v>
-      </c>
-      <c r="D12">
-        <v>10.997170000000001</v>
-      </c>
-      <c r="E12">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>43.286549999999998</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>58.793088939793655</v>
+      </c>
+      <c r="C23">
+        <v>3.15848</v>
+      </c>
+      <c r="D23">
+        <v>4.8616000000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>38.196642166068671</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>14.806549999999998</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
-        <v>20.602806784726049</v>
-      </c>
-      <c r="F12">
+        <v>1.5820251861356851</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>43.314320000000002</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="2"/>
-        <v>14.384350000000001</v>
+        <v>58.743483563272562</v>
+      </c>
+      <c r="C24">
+        <v>3.1126900000000002</v>
+      </c>
+      <c r="D24">
+        <v>4.53104</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>40.355029717804932</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>14.834320000000002</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.6058976714634345</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>43.073650000000001</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>59.173390872142953</v>
-      </c>
-      <c r="C13">
-        <v>3.0165099999999998</v>
-      </c>
-      <c r="D13">
-        <v>7.2819900000000004</v>
-      </c>
-      <c r="E13">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>43.413960000000003</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>58.565497257310675</v>
+      </c>
+      <c r="C25">
+        <v>2.9445700000000001</v>
+      </c>
+      <c r="D25">
+        <v>3.3129200000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>52.053839591345188</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>14.933960000000003</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
-        <v>24.51213546018711</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="2"/>
-        <v>14.59365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>43.094270000000002</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>59.136557495698412</v>
-      </c>
-      <c r="C14">
-        <v>3.4637199999999999</v>
-      </c>
-      <c r="D14">
-        <v>7.0555899999999996</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>29.031232955571472</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="2"/>
-        <v>14.614270000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>43.20731</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>58.934634853928735</v>
-      </c>
-      <c r="C15">
-        <v>3.28668</v>
-      </c>
-      <c r="D15">
-        <v>5.7848300000000004</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>33.484006562286275</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="2"/>
-        <v>14.727309999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>43.286549999999998</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>58.793088939793655</v>
-      </c>
-      <c r="C16">
-        <v>3.15848</v>
-      </c>
-      <c r="D16">
-        <v>4.8616000000000001</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>38.196642166068671</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="2"/>
-        <v>14.806549999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>43.314320000000002</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>58.743483563272562</v>
-      </c>
-      <c r="C17">
-        <v>3.1126900000000002</v>
-      </c>
-      <c r="D17">
-        <v>4.53104</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>40.355029717804932</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>14.834320000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>43.413960000000003</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>58.565497257310675</v>
-      </c>
-      <c r="C18">
-        <v>2.9445700000000001</v>
-      </c>
-      <c r="D18">
-        <v>3.3129200000000001</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>52.053839591345188</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>14.933960000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <f t="shared" ref="B19:B24" si="3">(76.2-A19)*1.79</f>
-        <v>136.398</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f t="shared" si="3"/>
-        <v>136.398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <f t="shared" si="3"/>
-        <v>136.398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <f t="shared" si="3"/>
-        <v>136.398</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <f t="shared" si="3"/>
-        <v>136.398</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <f t="shared" si="3"/>
-        <v>136.398</v>
+        <v>1.716452769424518</v>
       </c>
     </row>
   </sheetData>
